--- a/CoPilot_on_Algorithm_Design/Sorting_Algorithms/Insertion_Sort/simiparity_comparison.xlsx
+++ b/CoPilot_on_Algorithm_Design/Sorting_Algorithms/Insertion_Sort/simiparity_comparison.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GH-Dataset\Copilot_asset_liability\CopilotEvaluation\CoPilot_on_Algorithm_Design\Sorting_Algorithms\Insertion_Sort\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79A64F6E-5523-410F-B768-00304604B90F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DB56431-07C6-40D9-A916-5C4957229043}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="simiparity_comparison" sheetId="1" r:id="rId1"/>
@@ -929,7 +929,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5539,10 +5539,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:H125"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -5568,7 +5569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -5594,7 +5595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -5620,7 +5621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -5646,7 +5647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -5672,7 +5673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -5698,7 +5699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>2</v>
       </c>
@@ -5724,7 +5725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>2</v>
       </c>
@@ -5750,7 +5751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>2</v>
       </c>
@@ -5776,7 +5777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>2</v>
       </c>
@@ -5802,7 +5803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>2</v>
       </c>
@@ -5828,7 +5829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -5854,7 +5855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>2</v>
       </c>
@@ -5880,7 +5881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>2</v>
       </c>
@@ -5906,7 +5907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>2</v>
       </c>
@@ -5932,7 +5933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>2</v>
       </c>
@@ -5958,7 +5959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>2</v>
       </c>
@@ -5984,7 +5985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>2</v>
       </c>
@@ -6010,7 +6011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>2</v>
       </c>
@@ -6036,7 +6037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>2</v>
       </c>
@@ -6062,7 +6063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>2</v>
       </c>
@@ -6088,7 +6089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>2</v>
       </c>
@@ -6114,7 +6115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>2</v>
       </c>
@@ -6140,7 +6141,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>2</v>
       </c>
@@ -6166,7 +6167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>2</v>
       </c>
@@ -6192,7 +6193,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>2</v>
       </c>
@@ -6218,7 +6219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>2</v>
       </c>
@@ -6244,7 +6245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>2</v>
       </c>
@@ -6270,7 +6271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>2</v>
       </c>
@@ -6296,7 +6297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>2</v>
       </c>
@@ -6322,7 +6323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>2</v>
       </c>
@@ -6348,7 +6349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>2</v>
       </c>
@@ -6374,7 +6375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>2</v>
       </c>
@@ -6400,7 +6401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>2</v>
       </c>
@@ -6426,7 +6427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>2</v>
       </c>
@@ -6452,7 +6453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>2</v>
       </c>
@@ -6478,7 +6479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>2</v>
       </c>
@@ -6504,7 +6505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>2</v>
       </c>
@@ -6530,7 +6531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>2</v>
       </c>
@@ -6556,7 +6557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>2</v>
       </c>
@@ -6582,7 +6583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>2</v>
       </c>
@@ -6608,7 +6609,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>2</v>
       </c>
@@ -6634,7 +6635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>2</v>
       </c>
@@ -6660,7 +6661,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>2</v>
       </c>
@@ -6686,7 +6687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>2</v>
       </c>
@@ -6712,7 +6713,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>2</v>
       </c>
@@ -6738,7 +6739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>2</v>
       </c>
@@ -6764,7 +6765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>2</v>
       </c>
@@ -6790,7 +6791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>2</v>
       </c>
@@ -6816,7 +6817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>2</v>
       </c>
@@ -6842,7 +6843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>2</v>
       </c>
@@ -6868,7 +6869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>2</v>
       </c>
@@ -6894,7 +6895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>2</v>
       </c>
@@ -6920,7 +6921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>2</v>
       </c>
@@ -6946,7 +6947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>2</v>
       </c>
@@ -6972,7 +6973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>2</v>
       </c>
@@ -6998,7 +6999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>2</v>
       </c>
@@ -7024,7 +7025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>2</v>
       </c>
@@ -7050,7 +7051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>2</v>
       </c>
@@ -7206,7 +7207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>2</v>
       </c>
@@ -7232,7 +7233,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>2</v>
       </c>
@@ -7258,7 +7259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>2</v>
       </c>
@@ -7284,7 +7285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>2</v>
       </c>
@@ -7310,7 +7311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>2</v>
       </c>
@@ -7336,7 +7337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>2</v>
       </c>
@@ -7362,7 +7363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>2</v>
       </c>
@@ -7544,7 +7545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>2</v>
       </c>
@@ -7570,7 +7571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>2</v>
       </c>
@@ -7596,7 +7597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>2</v>
       </c>
@@ -7622,7 +7623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>2</v>
       </c>
@@ -7648,7 +7649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>2</v>
       </c>
@@ -7674,7 +7675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>2</v>
       </c>
@@ -7856,7 +7857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>2</v>
       </c>
@@ -8038,7 +8039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>2</v>
       </c>
@@ -8220,7 +8221,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>2</v>
       </c>
@@ -8402,7 +8403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>2</v>
       </c>
@@ -8584,7 +8585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>2</v>
       </c>
@@ -8766,7 +8767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:8" hidden="1" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>2</v>
       </c>
@@ -8793,7 +8794,23 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:H125" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A1:H125" xr:uid="{00000000-0009-0000-0000-000001000000}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="4"/>
+        <filter val="5"/>
+        <filter val="6"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="4">
+      <filters>
+        <filter val="1"/>
+        <filter val="2"/>
+        <filter val="3"/>
+        <filter val="4"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -8802,7 +8819,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
@@ -8833,7 +8850,7 @@
         <v>11</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B2:B3" si="0">12/13</f>
+        <f t="shared" ref="B3" si="0">12/13</f>
         <v>0.92307692307692313</v>
       </c>
     </row>
